--- a/biology/Botanique/Clitopilus_prunulus/Clitopilus_prunulus.xlsx
+++ b/biology/Botanique/Clitopilus_prunulus/Clitopilus_prunulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitopilus prunulus
-Le meunier[1] (Clitopilus prunulus), aussi appelé Clitopile petite prune, Clitopile pruineux, langue de carpe[2], garde-cèpe ou mère de cèpe, est une espèce de champignon basidiomycète comestible de la famille des Entolomataceae, du genre Clitopilus.
+Le meunier (Clitopilus prunulus), aussi appelé Clitopile petite prune, Clitopile pruineux, langue de carpe, garde-cèpe ou mère de cèpe, est une espèce de champignon basidiomycète comestible de la famille des Entolomataceae, du genre Clitopilus.
 </t>
         </is>
       </c>
@@ -514,54 +526,232 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial accepté
-Clitopilus prunulus (Scop. 1772) P. Kumm. 1871[3]
-Basionyme
-Agaricus prunulus Scop. 1772[4]
-Synonymes
-Agaricus orcella Bull. 1793
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Clitopilus prunulus (Scop. 1772) P. Kumm. 1871</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus prunulus Scop. 1772</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agaricus orcella Bull. 1793
 Agaricus prunulus Scop. 1772
 Clitopilus orcella (Bull.) P. Kumm. 1871
 Paxillopsis prunulus (Scop.) J.E. Lange 1939
 Paxillopsis prunulus (Scop.) J.E. Lange 1940
 Pleuropus orcellus (Bull.) Gray 1821
-Pleuropus prunulus (Scop.) Murrill 1917
-Sous-espèces
-Clitopilus prunulus var. amarus Joss. 1941[5]
-Clitopilus prunulus var. pinetorum Sacc. 1915[5]
-Origine du nom vernaculaire
-La saveur est douce et il dégage une « forte odeur de farine fraiche »[2] d'où son nom de « meunier ».
-Traduction du nom français
-Le nom latin prunulus a souvent été traduit de façon erronée par petite prune, il s'agit de l'adjectif pruineux, couvert de givre, ce qui est une de ses caractéristiques.[réf. nécessaire]
+Pleuropus prunulus (Scop.) Murrill 1917</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clitopilus prunulus var. amarus Joss. 1941
+Clitopilus prunulus var. pinetorum Sacc. 1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Origine du nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saveur est douce et il dégage une « forte odeur de farine fraiche » d'où son nom de « meunier ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traduction du nom français</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom latin prunulus a souvent été traduit de façon erronée par petite prune, il s'agit de l'adjectif pruineux, couvert de givre, ce qui est une de ses caractéristiques.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau mesure de 3 à 10 cm. D'aspect mat, charnu, convexe jeune, puis se creusant au centre, il devient déprimé en vieillissant.
 Sa marge enroulée et ondulée.
@@ -574,63 +764,67 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champignon est saprophyte ; les sporophores sont dispersés ou grégaires, sous les feuillus ou les conifères dans les zones herbeuses, les coupe-feu et les forêts ouvertes, de l'été à l'automne, ou en hiver dans les climats plus chauds ; il est largement distribué dans l'hémisphère nord.
-On dit qu'il annonce le cèpe de Bordeaux car il pousse quelques semaines avant celui-ci aux mêmes endroits. Certains mycologues l'appellent "garde-cèpe"[6] ou encore "mère du cèpe"[7],[8].
+On dit qu'il annonce le cèpe de Bordeaux car il pousse quelques semaines avant celui-ci aux mêmes endroits. Certains mycologues l'appellent "garde-cèpe" ou encore "mère du cèpe",.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitopilus_prunulus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La chair blanche et molle de ce champignon est très appréciée, d'autant qu'elle n'est jamais véreuse. Vieux, il se gorge d'eau et est rapidement dégradé par des hyphomycètes.
 Cet excellent comestible, reconnaissable à son odeur forte de farine fraîche qui disparaît lors de la cuisson, peut être facilement confondu avec des clitocybes blancs très dangereux, notamment Clitocybe candicans ou Clitocybe cerussata dont les lames ne sont pas roses, mais blanches ou crème, dont l'odeur est moins farineuse. La différence ne saute pas aux yeux de l'amateur, et le risque de confusion est très important ; une identification précise est donc indispensable avant consommation.
